--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT\HCMUT-HK241\Cơ Sở Toán\Assigment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT\HCMUT-HK241\Cơ Sở Toán\Assigment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68856B0F-48E4-4853-90C7-97A144CB3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FF107-DCDD-43D3-87BA-FF7AF878CBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B595DF3B-4AD5-4206-9475-08E2F871F742}"/>
   </bookViews>
@@ -36,20 +36,20 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>Column</t>
+    <t>a</t>
   </si>
   <si>
-    <t>Row</t>
+    <t>Coordinates1</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Coordinates2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,17 +87,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,238 +431,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CA29A6-B273-48BF-A302-3151D0AC57A3}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
       <c r="E10" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
         <v>1</v>
       </c>
     </row>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT\HCMUT-HK241\Cơ Sở Toán\Assigment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FF107-DCDD-43D3-87BA-FF7AF878CBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6D7DDD-69DF-4D10-9911-81BED8714AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B595DF3B-4AD5-4206-9475-08E2F871F742}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
